--- a/biology/Zoologie/Calliophis/Calliophis.xlsx
+++ b/biology/Zoologie/Calliophis/Calliophis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calliophis est un genre de serpents de la famille des Elapidae[1].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calliophis est un genre de serpents de la famille des Elapidae.  
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est et en Asie du Sud[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est et en Asie du Sud. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des serpents venimeux.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (18 décembre 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (18 décembre 2012) :
 Calliophis beddomei Smith, 1943
 Calliophis bibroni (Jan, 1858)
 Calliophis bivirgata (Boie, 1827)
@@ -613,7 +631,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs espèces de ce genre étaient auparavant classées dans le genre Maticora.
 </t>
@@ -644,7 +664,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Calliophis, du grec ancien κάλλος, kallios, « beau », et ὄφις, ophis, « serpent », fait référence à la livrée de ces espèces.
 </t>
@@ -675,7 +697,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Gray, 1835 : Illustrations of Indian Zoology, chiefly selected from the collection of Major-General Hardwicke. vol. 2, p. 1-263 (texte intégral).</t>
         </is>
